--- a/Q-maker/argo-q-search-examples.xlsx
+++ b/Q-maker/argo-q-search-examples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\Python\MyNotebooks\Q-maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\Q-maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866EA490-E743-46B8-902A-CA910475FFB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDD168C-3C9F-41C2-B0CA-7E757CFCF804}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B2B3749D-2B6E-4CBC-BA6A-F3DA35FC906E}"/>
+    <workbookView xWindow="-26025" yWindow="645" windowWidth="25680" windowHeight="13335" xr2:uid="{B2B3749D-2B6E-4CBC-BA6A-F3DA35FC906E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>encounter2</t>
+  </si>
+  <si>
+    <t>fetch_q_status_pub</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>Argonaut Project</t>
   </si>
 </sst>
 </file>
@@ -640,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F61693-4E2B-4C45-A407-AC50B6127CED}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,6 +1121,29 @@
         <v>78</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{931BFFA5-8C2A-45F0-9F23-BFA4168B4047}"/>

--- a/Q-maker/argo-q-search-examples.xlsx
+++ b/Q-maker/argo-q-search-examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\Q-maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/Q-maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDD168C-3C9F-41C2-B0CA-7E757CFCF804}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D2740-450C-C84F-8B6B-5C2F25884414}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26025" yWindow="645" windowWidth="25680" windowHeight="13335" xr2:uid="{B2B3749D-2B6E-4CBC-BA6A-F3DA35FC906E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{B2B3749D-2B6E-4CBC-BA6A-F3DA35FC906E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -286,6 +285,9 @@
   </si>
   <si>
     <t>Argonaut Project</t>
+  </si>
+  <si>
+    <t>draft</t>
   </si>
 </sst>
 </file>
@@ -652,18 +654,18 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="29.42578125" customWidth="1"/>
+    <col min="1" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -712,7 +714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -729,7 +731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -744,7 +746,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -761,7 +763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -778,7 +780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -795,7 +797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -818,7 +820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -835,7 +837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -858,7 +860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -872,7 +874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -889,7 +891,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -904,7 +906,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -915,7 +917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -932,7 +934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -955,7 +957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -978,7 +980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1007,7 +1009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1070,7 +1072,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1087,7 +1089,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
